--- a/natmiOut/YoungD2/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H2">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J2">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N2">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O2">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P2">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q2">
-        <v>37054.39843375154</v>
+        <v>52464.11726249465</v>
       </c>
       <c r="R2">
-        <v>37054.39843375154</v>
+        <v>472177.0553624518</v>
       </c>
       <c r="S2">
-        <v>0.1091527408853039</v>
+        <v>0.1286888930169772</v>
       </c>
       <c r="T2">
-        <v>0.1091527408853039</v>
+        <v>0.1286888930169772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H3">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J3">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N3">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P3">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q3">
-        <v>16389.36426521973</v>
+        <v>20792.27597061487</v>
       </c>
       <c r="R3">
-        <v>16389.36426521973</v>
+        <v>187130.4837355338</v>
       </c>
       <c r="S3">
-        <v>0.04827885774788084</v>
+        <v>0.05100123889580322</v>
       </c>
       <c r="T3">
-        <v>0.04827885774788084</v>
+        <v>0.05100123889580322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H4">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J4">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N4">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P4">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q4">
-        <v>158.5621084124693</v>
+        <v>43.078663058486</v>
       </c>
       <c r="R4">
-        <v>158.5621084124693</v>
+        <v>387.707967526374</v>
       </c>
       <c r="S4">
-        <v>0.0004670832469380733</v>
+        <v>0.0001056673732622012</v>
       </c>
       <c r="T4">
-        <v>0.0004670832469380733</v>
+        <v>0.0001056673732622012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6179614928129</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H5">
-        <v>75.6179614928129</v>
+        <v>285.969046</v>
       </c>
       <c r="I5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J5">
-        <v>0.1816399436733429</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N5">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P5">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q5">
-        <v>8059.515195595291</v>
+        <v>104.0111362428747</v>
       </c>
       <c r="R5">
-        <v>8059.515195595291</v>
+        <v>936.100226185872</v>
       </c>
       <c r="S5">
-        <v>0.02374126179322016</v>
+        <v>0.0002551282416049001</v>
       </c>
       <c r="T5">
-        <v>0.02374126179322016</v>
+        <v>0.0002551282416049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.6958799956228</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H6">
-        <v>86.6958799956228</v>
+        <v>285.969046</v>
       </c>
       <c r="I6">
-        <v>0.2082499243332887</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J6">
-        <v>0.2082499243332887</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N6">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P6">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q6">
-        <v>42482.81250252752</v>
+        <v>221.7162815455206</v>
       </c>
       <c r="R6">
-        <v>42482.81250252752</v>
+        <v>1995.446533909686</v>
       </c>
       <c r="S6">
-        <v>0.125143454520194</v>
+        <v>0.0005438464292304154</v>
       </c>
       <c r="T6">
-        <v>0.125143454520194</v>
+        <v>0.0005438464292304154</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.6958799956228</v>
+        <v>95.32301533333333</v>
       </c>
       <c r="H7">
-        <v>86.6958799956228</v>
+        <v>285.969046</v>
       </c>
       <c r="I7">
-        <v>0.2082499243332887</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="J7">
-        <v>0.2082499243332887</v>
+        <v>0.2086259240761469</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N7">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P7">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q7">
-        <v>18790.38166979795</v>
+        <v>11427.78923947932</v>
       </c>
       <c r="R7">
-        <v>18790.38166979795</v>
+        <v>102850.1031553139</v>
       </c>
       <c r="S7">
-        <v>0.05535163835425316</v>
+        <v>0.02803115011926896</v>
       </c>
       <c r="T7">
-        <v>0.05535163835425316</v>
+        <v>0.02803115011926896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H8">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J8">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N8">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O8">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P8">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q8">
-        <v>181.7912206491697</v>
+        <v>48353.11827732615</v>
       </c>
       <c r="R8">
-        <v>181.7912206491697</v>
+        <v>435178.0644959353</v>
       </c>
       <c r="S8">
-        <v>0.0005355102455169705</v>
+        <v>0.1186050502650198</v>
       </c>
       <c r="T8">
-        <v>0.0005355102455169705</v>
+        <v>0.1186050502650198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.6958799956228</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H9">
-        <v>86.6958799956228</v>
+        <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J9">
-        <v>0.2082499243332887</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N9">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P9">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q9">
-        <v>9240.222143341409</v>
+        <v>19163.02859403418</v>
       </c>
       <c r="R9">
-        <v>9240.222143341409</v>
+        <v>172467.2573463076</v>
       </c>
       <c r="S9">
-        <v>0.02721932121332453</v>
+        <v>0.0470048685710352</v>
       </c>
       <c r="T9">
-        <v>0.02721932121332453</v>
+        <v>0.0470048685710352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.0350445338493</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>76.0350445338493</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J10">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N10">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P10">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q10">
-        <v>37258.77793403722</v>
+        <v>39.70309229971801</v>
       </c>
       <c r="R10">
-        <v>37258.77793403722</v>
+        <v>357.327830697462</v>
       </c>
       <c r="S10">
-        <v>0.1097547904011484</v>
+        <v>9.738745763772021E-05</v>
       </c>
       <c r="T10">
-        <v>0.1097547904011484</v>
+        <v>9.738745763772021E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.0350445338493</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>76.0350445338493</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J11">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N11">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P11">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q11">
-        <v>16479.76244249725</v>
+        <v>95.86100053390403</v>
       </c>
       <c r="R11">
-        <v>16479.76244249725</v>
+        <v>862.7490048051361</v>
       </c>
       <c r="S11">
-        <v>0.04854514756064131</v>
+        <v>0.0002351368265758826</v>
       </c>
       <c r="T11">
-        <v>0.04854514756064131</v>
+        <v>0.0002351368265758826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.0350445338493</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H12">
-        <v>76.0350445338493</v>
+        <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J12">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N12">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P12">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q12">
-        <v>159.436683249773</v>
+        <v>204.342970871702</v>
       </c>
       <c r="R12">
-        <v>159.436683249773</v>
+        <v>1839.086737845318</v>
       </c>
       <c r="S12">
-        <v>0.0004696595197865367</v>
+        <v>0.0005012315481400203</v>
       </c>
       <c r="T12">
-        <v>0.0004696595197865367</v>
+        <v>0.0005012315481400203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.0350445338493</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H13">
-        <v>76.0350445338493</v>
+        <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="J13">
-        <v>0.1826418080265384</v>
+        <v>0.1922783515464171</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N13">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P13">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q13">
-        <v>8103.968749231189</v>
+        <v>10532.3271137913</v>
       </c>
       <c r="R13">
-        <v>8103.968749231189</v>
+        <v>94790.94402412168</v>
       </c>
       <c r="S13">
-        <v>0.02387221054496214</v>
+        <v>0.0258346768780085</v>
       </c>
       <c r="T13">
-        <v>0.02387221054496214</v>
+        <v>0.0258346768780085</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H14">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I14">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J14">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.021123318345</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N14">
-        <v>490.021123318345</v>
+        <v>1651.14743</v>
       </c>
       <c r="O14">
-        <v>0.6009291716231846</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P14">
-        <v>0.6009291716231846</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q14">
-        <v>33145.82842457843</v>
+        <v>48987.04551165593</v>
       </c>
       <c r="R14">
-        <v>33145.82842457843</v>
+        <v>440883.4096049034</v>
       </c>
       <c r="S14">
-        <v>0.09763909749945583</v>
+        <v>0.1201600062672536</v>
       </c>
       <c r="T14">
-        <v>0.09763909749945583</v>
+        <v>0.1201600062672536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H15">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I15">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J15">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>216.739038472724</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N15">
-        <v>216.739038472724</v>
+        <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P15">
-        <v>0.2657942783482933</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q15">
-        <v>14660.58224893683</v>
+        <v>19414.26297458281</v>
       </c>
       <c r="R15">
-        <v>14660.58224893683</v>
+        <v>174728.3667712453</v>
       </c>
       <c r="S15">
-        <v>0.04318630994123178</v>
+        <v>0.04762111975389312</v>
       </c>
       <c r="T15">
-        <v>0.04318630994123178</v>
+        <v>0.04762111975389312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H16">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I16">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J16">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.09688419632338</v>
+        <v>0.451923</v>
       </c>
       <c r="N16">
-        <v>2.09688419632338</v>
+        <v>1.355769</v>
       </c>
       <c r="O16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P16">
-        <v>0.002571478703924644</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q16">
-        <v>141.8366688498687</v>
+        <v>40.22361449957999</v>
       </c>
       <c r="R16">
-        <v>141.8366688498687</v>
+        <v>362.0125304962199</v>
       </c>
       <c r="S16">
-        <v>0.0004178143976803169</v>
+        <v>9.866424316631018E-05</v>
       </c>
       <c r="T16">
-        <v>0.0004178143976803169</v>
+        <v>9.866424316631018E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>67.6416318548069</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H17">
-        <v>67.6416318548069</v>
+        <v>267.01638</v>
       </c>
       <c r="I17">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J17">
-        <v>0.1624802091662824</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>106.582021473315</v>
+        <v>1.091144</v>
       </c>
       <c r="N17">
-        <v>106.582021473315</v>
+        <v>3.273432</v>
       </c>
       <c r="O17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P17">
-        <v>0.1307050713245975</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q17">
-        <v>7209.381858839097</v>
+        <v>97.11777364624</v>
       </c>
       <c r="R17">
-        <v>7209.381858839097</v>
+        <v>874.0599628161599</v>
       </c>
       <c r="S17">
-        <v>0.02123698732791445</v>
+        <v>0.0002382195571932837</v>
       </c>
       <c r="T17">
-        <v>0.02123698732791445</v>
+        <v>0.0002382195571932837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>71.3219309856992</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H18">
-        <v>71.3219309856992</v>
+        <v>267.01638</v>
       </c>
       <c r="I18">
-        <v>0.1713205602368394</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J18">
-        <v>0.1713205602368394</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>490.021123318345</v>
+        <v>2.325947</v>
       </c>
       <c r="N18">
-        <v>490.021123318345</v>
+        <v>6.977841</v>
       </c>
       <c r="O18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P18">
-        <v>0.6009291716231846</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q18">
-        <v>34949.2527388458</v>
+        <v>207.0219826706199</v>
       </c>
       <c r="R18">
-        <v>34949.2527388458</v>
+        <v>1863.19784403558</v>
       </c>
       <c r="S18">
-        <v>0.1029515223451438</v>
+        <v>0.0005078028788088893</v>
       </c>
       <c r="T18">
-        <v>0.1029515223451438</v>
+        <v>0.0005078028788088893</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>71.3219309856992</v>
+        <v>89.00545999999999</v>
       </c>
       <c r="H19">
-        <v>71.3219309856992</v>
+        <v>267.01638</v>
       </c>
       <c r="I19">
-        <v>0.1713205602368394</v>
+        <v>0.1947991917312883</v>
       </c>
       <c r="J19">
-        <v>0.1713205602368394</v>
+        <v>0.1947991917312882</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>216.739038472724</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N19">
-        <v>216.739038472724</v>
+        <v>359.654671</v>
       </c>
       <c r="O19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P19">
-        <v>0.2657942783482933</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q19">
-        <v>15458.24674385842</v>
+        <v>10670.40981116788</v>
       </c>
       <c r="R19">
-        <v>15458.24674385842</v>
+        <v>96033.68830051097</v>
       </c>
       <c r="S19">
-        <v>0.04553602467437604</v>
+        <v>0.02617337903097304</v>
       </c>
       <c r="T19">
-        <v>0.04553602467437604</v>
+        <v>0.02617337903097304</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>71.3219309856992</v>
+        <v>68.108298</v>
       </c>
       <c r="H20">
-        <v>71.3219309856992</v>
+        <v>204.324894</v>
       </c>
       <c r="I20">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J20">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.09688419632338</v>
+        <v>550.3824766666668</v>
       </c>
       <c r="N20">
-        <v>2.09688419632338</v>
+        <v>1651.14743</v>
       </c>
       <c r="O20">
-        <v>0.002571478703924644</v>
+        <v>0.6168403739221149</v>
       </c>
       <c r="P20">
-        <v>0.002571478703924644</v>
+        <v>0.616840373922115</v>
       </c>
       <c r="Q20">
-        <v>149.5538299351794</v>
+        <v>37485.61373479139</v>
       </c>
       <c r="R20">
-        <v>149.5538299351794</v>
+        <v>337370.5236131225</v>
       </c>
       <c r="S20">
-        <v>0.0004405471721934717</v>
+        <v>0.09194821884558518</v>
       </c>
       <c r="T20">
-        <v>0.0004405471721934717</v>
+        <v>0.09194821884558518</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>71.3219309856992</v>
+        <v>68.108298</v>
       </c>
       <c r="H21">
-        <v>71.3219309856992</v>
+        <v>204.324894</v>
       </c>
       <c r="I21">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J21">
-        <v>0.1713205602368394</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>106.582021473315</v>
+        <v>218.1244046666667</v>
       </c>
       <c r="N21">
-        <v>106.582021473315</v>
+        <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="P21">
-        <v>0.1307050713245975</v>
+        <v>0.2444626147093213</v>
       </c>
       <c r="Q21">
-        <v>7601.635579836082</v>
+        <v>14856.08195410992</v>
       </c>
       <c r="R21">
-        <v>7601.635579836082</v>
+        <v>133704.7375869893</v>
       </c>
       <c r="S21">
-        <v>0.02239246604512609</v>
+        <v>0.03644038708739712</v>
       </c>
       <c r="T21">
-        <v>0.02239246604512609</v>
+        <v>0.03644038708739711</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.9944490781292</v>
+        <v>68.108298</v>
       </c>
       <c r="H22">
-        <v>38.9944490781292</v>
+        <v>204.324894</v>
       </c>
       <c r="I22">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J22">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>490.021123318345</v>
+        <v>0.451923</v>
       </c>
       <c r="N22">
-        <v>490.021123318345</v>
+        <v>1.355769</v>
       </c>
       <c r="O22">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011907</v>
       </c>
       <c r="P22">
-        <v>0.6009291716231846</v>
+        <v>0.0005064920562011908</v>
       </c>
       <c r="Q22">
-        <v>19108.10374044487</v>
+        <v>30.779706357054</v>
       </c>
       <c r="R22">
-        <v>19108.10374044487</v>
+        <v>277.017357213486</v>
       </c>
       <c r="S22">
-        <v>0.05628756597193853</v>
+        <v>7.549934212480357E-05</v>
       </c>
       <c r="T22">
-        <v>0.05628756597193853</v>
+        <v>7.549934212480357E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.9944490781292</v>
+        <v>68.108298</v>
       </c>
       <c r="H23">
-        <v>38.9944490781292</v>
+        <v>204.324894</v>
       </c>
       <c r="I23">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J23">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>216.739038472724</v>
+        <v>1.091144</v>
       </c>
       <c r="N23">
-        <v>216.739038472724</v>
+        <v>3.273432</v>
       </c>
       <c r="O23">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="P23">
-        <v>0.2657942783482933</v>
+        <v>0.001222898078149579</v>
       </c>
       <c r="Q23">
-        <v>8451.619398967321</v>
+        <v>74.31596071291202</v>
       </c>
       <c r="R23">
-        <v>8451.619398967321</v>
+        <v>668.8436464162081</v>
       </c>
       <c r="S23">
-        <v>0.02489630006991017</v>
+        <v>0.0001822891381129677</v>
       </c>
       <c r="T23">
-        <v>0.02489630006991017</v>
+        <v>0.0001822891381129676</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.9944490781292</v>
+        <v>68.108298</v>
       </c>
       <c r="H24">
-        <v>38.9944490781292</v>
+        <v>204.324894</v>
       </c>
       <c r="I24">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J24">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.09688419632338</v>
+        <v>2.325947</v>
       </c>
       <c r="N24">
-        <v>2.09688419632338</v>
+        <v>6.977841</v>
       </c>
       <c r="O24">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="P24">
-        <v>0.002571478703924644</v>
+        <v>0.002606801775180708</v>
       </c>
       <c r="Q24">
-        <v>81.76684401626591</v>
+        <v>158.416291408206</v>
       </c>
       <c r="R24">
-        <v>81.76684401626591</v>
+        <v>1425.746622673854</v>
       </c>
       <c r="S24">
-        <v>0.0002408641218092749</v>
+        <v>0.0003885782939066179</v>
       </c>
       <c r="T24">
-        <v>0.0002408641218092749</v>
+        <v>0.0003885782939066179</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.9944490781292</v>
+        <v>68.108298</v>
       </c>
       <c r="H25">
-        <v>38.9944490781292</v>
+        <v>204.324894</v>
       </c>
       <c r="I25">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="J25">
-        <v>0.09366755456370807</v>
+        <v>0.1490632305096083</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>106.582021473315</v>
+        <v>119.8848903333333</v>
       </c>
       <c r="N25">
-        <v>106.582021473315</v>
+        <v>359.654671</v>
       </c>
       <c r="O25">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="P25">
-        <v>0.1307050713245975</v>
+        <v>0.1343608194590323</v>
       </c>
       <c r="Q25">
-        <v>4156.107208985254</v>
+        <v>8165.155836519986</v>
       </c>
       <c r="R25">
-        <v>4156.107208985254</v>
+        <v>73486.40252867989</v>
       </c>
       <c r="S25">
-        <v>0.01224282440005009</v>
+        <v>0.0200282578024816</v>
       </c>
       <c r="T25">
-        <v>0.01224282440005009</v>
+        <v>0.0200282578024816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H26">
+        <v>217.631107</v>
+      </c>
+      <c r="I26">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J26">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N26">
+        <v>1651.14743</v>
+      </c>
+      <c r="O26">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P26">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q26">
+        <v>39926.78255678945</v>
+      </c>
+      <c r="R26">
+        <v>359341.043011105</v>
+      </c>
+      <c r="S26">
+        <v>0.09793614601871743</v>
+      </c>
+      <c r="T26">
+        <v>0.09793614601871743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H27">
+        <v>217.631107</v>
+      </c>
+      <c r="I27">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J27">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N27">
+        <v>654.373214</v>
+      </c>
+      <c r="O27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P27">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q27">
+        <v>15823.55188377421</v>
+      </c>
+      <c r="R27">
+        <v>142411.9669539679</v>
+      </c>
+      <c r="S27">
+        <v>0.03881348780407902</v>
+      </c>
+      <c r="T27">
+        <v>0.03881348780407902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H28">
+        <v>217.631107</v>
+      </c>
+      <c r="I28">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J28">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.451923</v>
+      </c>
+      <c r="N28">
+        <v>1.355769</v>
+      </c>
+      <c r="O28">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P28">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q28">
+        <v>32.784167589587</v>
+      </c>
+      <c r="R28">
+        <v>295.057508306283</v>
+      </c>
+      <c r="S28">
+        <v>8.041607208367244E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.041607208367244E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H29">
+        <v>217.631107</v>
+      </c>
+      <c r="I29">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J29">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>1.091144</v>
+      </c>
+      <c r="N29">
+        <v>3.273432</v>
+      </c>
+      <c r="O29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P29">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q29">
+        <v>79.15562553880267</v>
+      </c>
+      <c r="R29">
+        <v>712.4006298492239</v>
+      </c>
+      <c r="S29">
+        <v>0.0001941603205804234</v>
+      </c>
+      <c r="T29">
+        <v>0.0001941603205804234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H30">
+        <v>217.631107</v>
+      </c>
+      <c r="I30">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J30">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.325947</v>
+      </c>
+      <c r="N30">
+        <v>6.977841</v>
+      </c>
+      <c r="O30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P30">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q30">
+        <v>168.7328068111096</v>
+      </c>
+      <c r="R30">
+        <v>1518.595261299987</v>
+      </c>
+      <c r="S30">
+        <v>0.000413883607638473</v>
+      </c>
+      <c r="T30">
+        <v>0.000413883607638473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>72.54370233333333</v>
+      </c>
+      <c r="H31">
+        <v>217.631107</v>
+      </c>
+      <c r="I31">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="J31">
+        <v>0.1587706482245977</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N31">
+        <v>359.654671</v>
+      </c>
+      <c r="O31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P31">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q31">
+        <v>8696.893798605643</v>
+      </c>
+      <c r="R31">
+        <v>78272.0441874508</v>
+      </c>
+      <c r="S31">
+        <v>0.02133255440149871</v>
+      </c>
+      <c r="T31">
+        <v>0.02133255440149871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>44.074633</v>
+      </c>
+      <c r="H32">
+        <v>132.223899</v>
+      </c>
+      <c r="I32">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J32">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>550.3824766666668</v>
+      </c>
+      <c r="N32">
+        <v>1651.14743</v>
+      </c>
+      <c r="O32">
+        <v>0.6168403739221149</v>
+      </c>
+      <c r="P32">
+        <v>0.616840373922115</v>
+      </c>
+      <c r="Q32">
+        <v>24257.9056687144</v>
+      </c>
+      <c r="R32">
+        <v>218321.1510184296</v>
+      </c>
+      <c r="S32">
+        <v>0.05950205950856165</v>
+      </c>
+      <c r="T32">
+        <v>0.05950205950856164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>44.074633</v>
+      </c>
+      <c r="H33">
+        <v>132.223899</v>
+      </c>
+      <c r="I33">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J33">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>218.1244046666667</v>
+      </c>
+      <c r="N33">
+        <v>654.373214</v>
+      </c>
+      <c r="O33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="P33">
+        <v>0.2444626147093213</v>
+      </c>
+      <c r="Q33">
+        <v>9613.753084026821</v>
+      </c>
+      <c r="R33">
+        <v>86523.77775624137</v>
+      </c>
+      <c r="S33">
+        <v>0.02358151259711359</v>
+      </c>
+      <c r="T33">
+        <v>0.02358151259711359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>44.074633</v>
+      </c>
+      <c r="H34">
+        <v>132.223899</v>
+      </c>
+      <c r="I34">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J34">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.451923</v>
+      </c>
+      <c r="N34">
+        <v>1.355769</v>
+      </c>
+      <c r="O34">
+        <v>0.0005064920562011907</v>
+      </c>
+      <c r="P34">
+        <v>0.0005064920562011908</v>
+      </c>
+      <c r="Q34">
+        <v>19.918340369259</v>
+      </c>
+      <c r="R34">
+        <v>179.265063323331</v>
+      </c>
+      <c r="S34">
+        <v>4.885756792648316E-05</v>
+      </c>
+      <c r="T34">
+        <v>4.885756792648316E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>44.074633</v>
+      </c>
+      <c r="H35">
+        <v>132.223899</v>
+      </c>
+      <c r="I35">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J35">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>1.091144</v>
+      </c>
+      <c r="N35">
+        <v>3.273432</v>
+      </c>
+      <c r="O35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="P35">
+        <v>0.001222898078149579</v>
+      </c>
+      <c r="Q35">
+        <v>48.091771350152</v>
+      </c>
+      <c r="R35">
+        <v>432.825942151368</v>
+      </c>
+      <c r="S35">
+        <v>0.0001179639940821214</v>
+      </c>
+      <c r="T35">
+        <v>0.0001179639940821214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>44.074633</v>
+      </c>
+      <c r="H36">
+        <v>132.223899</v>
+      </c>
+      <c r="I36">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J36">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.325947</v>
+      </c>
+      <c r="N36">
+        <v>6.977841</v>
+      </c>
+      <c r="O36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="P36">
+        <v>0.002606801775180708</v>
+      </c>
+      <c r="Q36">
+        <v>102.515260402451</v>
+      </c>
+      <c r="R36">
+        <v>922.6373436220589</v>
+      </c>
+      <c r="S36">
+        <v>0.0002514590174562917</v>
+      </c>
+      <c r="T36">
+        <v>0.0002514590174562917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>44.074633</v>
+      </c>
+      <c r="H37">
+        <v>132.223899</v>
+      </c>
+      <c r="I37">
+        <v>0.09646265391194166</v>
+      </c>
+      <c r="J37">
+        <v>0.09646265391194163</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>119.8848903333333</v>
+      </c>
+      <c r="N37">
+        <v>359.654671</v>
+      </c>
+      <c r="O37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="P37">
+        <v>0.1343608194590323</v>
+      </c>
+      <c r="Q37">
+        <v>5283.882543686914</v>
+      </c>
+      <c r="R37">
+        <v>47554.94289318223</v>
+      </c>
+      <c r="S37">
+        <v>0.01296080122680151</v>
+      </c>
+      <c r="T37">
+        <v>0.01296080122680151</v>
       </c>
     </row>
   </sheetData>
